--- a/SWD_Practice.xlsx
+++ b/SWD_Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{83A78EC4-4CF4-47F6-8530-CFED75C77323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10E898-F439-4A9D-8627-DECB3F03C710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>FROM:</t>
   </si>
@@ -129,15 +129,6 @@
     <t>Metadata Tabs</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
     <t>SEP</t>
   </si>
   <si>
@@ -166,6 +157,27 @@
   </si>
   <si>
     <t>JUN</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
@@ -353,7 +365,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -363,7 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
@@ -717,7 +728,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Max</c:v>
+                  <c:v>MAX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,7 +838,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg</c:v>
+                  <c:v>AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -937,7 +948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Min</c:v>
+                  <c:v>MIN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,8 +1176,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1180,7 +1248,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1195,7 +1263,2506 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-29F3-4D32-8DEA-764CF0752049}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-29F3-4D32-8DEA-764CF0752049}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-29F3-4D32-8DEA-764CF0752049}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-29F3-4D32-8DEA-764CF0752049}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$O$7:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$T$7:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29F3-4D32-8DEA-764CF0752049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517004256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464779904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464779904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517004256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$O$7:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$S$7:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B033-4548-8010-FEF294182669}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517004256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464779904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464779904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517004256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3CFF-40A7-9D6E-7C6D060308D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3CFF-40A7-9D6E-7C6D060308D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3CFF-40A7-9D6E-7C6D060308D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3CFF-40A7-9D6E-7C6D060308D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3CFF-40A7-9D6E-7C6D060308D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-3CFF-40A7-9D6E-7C6D060308D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$O$7:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$U$7:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3CFF-40A7-9D6E-7C6D060308D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517004256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464779904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464779904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517004256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-06AD-47E1-AB2A-BD96795CC508}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$O$7:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$V$7:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-06AD-47E1-AB2A-BD96795CC508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517004256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464779904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464779904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517004256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="41275">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1D7F-4FE2-BC69-423DBBD11A1E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$O$7:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$Q$7:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D7F-4FE2-BC69-423DBBD11A1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517004256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464779904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464779904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517004256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MAX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$P$7:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MIN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$R$7:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="31750">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$O$7:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$Q$7:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MAX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$W$7:$W$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MIN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$X$7:$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7C1B-46FE-80C2-CB9ADB14FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1517004256"/>
+        <c:axId val="1464779904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517004256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464779904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464779904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517004256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1280,7 +3847,3343 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1873,6 +7776,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DDC702-374C-4C2C-85E8-BB63F6DF24AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE4EC57-3BA7-4257-8A0B-46F7913B0685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5045BEE-3577-43E3-A4CD-6300C196AC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE78493F-E8DF-4603-8BAC-1F8AD8E2025A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5CA298-62BC-486C-BC86-E914413397ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7228728-6B8C-4422-BB48-623CE395EA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2009,7 +8140,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -2316,6 +8447,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -2330,15 +8464,15 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="G179" workbookViewId="0">
+      <selection activeCell="P183" sqref="P183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,14 +8481,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2364,20 +8498,38 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O7" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="P7">
         <v>0.8</v>
@@ -2388,10 +8540,34 @@
       <c r="R7">
         <v>0.3</v>
       </c>
+      <c r="S7">
+        <f>Q7</f>
+        <v>0.6</v>
+      </c>
+      <c r="T7">
+        <f>Q7</f>
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <f>Q7</f>
+        <v>0.6</v>
+      </c>
+      <c r="V7">
+        <f>Q7</f>
+        <v>0.6</v>
+      </c>
+      <c r="W7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="10" t="s">
-        <v>25</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O8" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="P8">
         <v>0.77</v>
@@ -2402,10 +8578,34 @@
       <c r="R8">
         <v>0.35</v>
       </c>
+      <c r="S8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T10" si="0">Q8</f>
+        <v>0.62</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:V13" si="1">Q8</f>
+        <v>0.62</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V14" si="2">Q8</f>
+        <v>0.62</v>
+      </c>
+      <c r="W8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="10" t="s">
-        <v>26</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="P9">
         <v>0.65</v>
@@ -2416,10 +8616,34 @@
       <c r="R9">
         <v>0.17</v>
       </c>
+      <c r="S9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="W9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O10" s="10" t="s">
-        <v>27</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O10" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="P10">
         <v>0.7</v>
@@ -2430,10 +8654,34 @@
       <c r="R10">
         <v>0.08</v>
       </c>
+      <c r="S10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="W10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="10" t="s">
-        <v>28</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O11" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="P11">
         <v>0.8</v>
@@ -2444,10 +8692,34 @@
       <c r="R11">
         <v>0.12</v>
       </c>
+      <c r="S11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0.44</v>
+      </c>
+      <c r="W11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="10" t="s">
-        <v>29</v>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O12" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="P12">
         <v>0.85</v>
@@ -2458,10 +8730,34 @@
       <c r="R12">
         <v>0.21</v>
       </c>
+      <c r="S12" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T12" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0.46</v>
+      </c>
+      <c r="W12" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O13" s="10" t="s">
-        <v>30</v>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O13" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="P13">
         <v>0.84</v>
@@ -2472,10 +8768,34 @@
       <c r="R13">
         <v>0.23</v>
       </c>
+      <c r="S13" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T13" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="W13" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O14" s="10" t="s">
-        <v>31</v>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O14" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="P14">
         <v>0.86</v>
@@ -2486,10 +8806,34 @@
       <c r="R14">
         <v>0.42</v>
       </c>
+      <c r="S14" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T14" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U14" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="W14" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O15" s="10" t="s">
-        <v>32</v>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O15" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P15">
         <v>0.9</v>
@@ -2500,10 +8844,34 @@
       <c r="R15">
         <v>0.48</v>
       </c>
+      <c r="S15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O16" s="10" t="s">
-        <v>33</v>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O16" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="P16">
         <v>0.95</v>
@@ -2512,6 +8880,30 @@
         <v>0.84</v>
       </c>
       <c r="R16">
+        <v>0.6</v>
+      </c>
+      <c r="S16" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T16" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U16" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W16">
+        <f>P16</f>
+        <v>0.95</v>
+      </c>
+      <c r="X16">
+        <f>R16</f>
         <v>0.6</v>
       </c>
     </row>
@@ -2530,7 +8922,7 @@
         <v>OCT</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" ref="P19:P27" si="0">UPPER(TEXT(O19,"mmm"))</f>
+        <f t="shared" ref="P19:P27" si="3">UPPER(TEXT(O19,"mmm"))</f>
         <v>OCT</v>
       </c>
     </row>
@@ -2539,7 +8931,7 @@
         <v>NOV</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>NOV</v>
       </c>
     </row>
@@ -2548,7 +8940,7 @@
         <v>DEC</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>DEC</v>
       </c>
     </row>
@@ -2557,7 +8949,7 @@
         <v>JAN</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>JAN</v>
       </c>
     </row>
@@ -2566,7 +8958,7 @@
         <v>FEB</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>FEB</v>
       </c>
     </row>
@@ -2575,7 +8967,7 @@
         <v>MAR</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>MAR</v>
       </c>
     </row>
@@ -2584,7 +8976,7 @@
         <v>APR</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>APR</v>
       </c>
     </row>
@@ -2593,7 +8985,7 @@
         <v>MAY</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>MAY</v>
       </c>
     </row>
@@ -2602,7 +8994,7 @@
         <v>JUN</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>JUN</v>
       </c>
     </row>
@@ -2786,19 +9178,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -2806,11 +9194,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -2818,19 +9205,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -2838,11 +9221,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -2850,19 +9232,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -2870,11 +9248,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -2882,13 +9259,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>

--- a/SWD_Practice.xlsx
+++ b/SWD_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10E898-F439-4A9D-8627-DECB3F03C710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6574AB-C0EF-4C6D-BCDF-1DEE25CB9BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2770,7 +2770,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6796874999999996E-2"/>
+          <c:y val="0.11987825879472576"/>
+          <c:w val="0.881953125"/>
+          <c:h val="0.80581344081001738"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -8140,7 +8150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -8466,8 +8476,8 @@
   </sheetPr>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G179" workbookViewId="0">
-      <selection activeCell="P183" sqref="P183"/>
+    <sheetView tabSelected="1" topLeftCell="G153" workbookViewId="0">
+      <selection activeCell="Q163" sqref="Q163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8587,7 +8597,7 @@
         <v>0.62</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:V13" si="1">Q8</f>
+        <f t="shared" ref="U8:U13" si="1">Q8</f>
         <v>0.62</v>
       </c>
       <c r="V8">
